--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoando/project/bru-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EA36984-5CCE-A940-8931-4AC18FD20ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C55D64-75F4-2F43-ACE6-0ECCA7A99ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="27320" windowHeight="15360" xr2:uid="{916EC3F5-6A94-2D48-899F-35ABFB1D2707}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{916EC3F5-6A94-2D48-899F-35ABFB1D2707}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>hk</t>
   </si>
@@ -201,6 +201,12 @@
   </si>
   <si>
     <t>2018-2019</t>
+  </si>
+  <si>
+    <t>score_of</t>
+  </si>
+  <si>
+    <t>student2</t>
   </si>
 </sst>
 </file>
@@ -623,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C679A9B-7F42-234D-BAF3-BF4E86F29D3F}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -636,7 +642,7 @@
     <col min="3" max="3" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -661,8 +667,11 @@
       <c r="H1" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I1" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>510201</v>
       </c>
@@ -687,8 +696,11 @@
       <c r="H2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>440155</v>
       </c>
@@ -713,8 +725,11 @@
       <c r="H3" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>450101</v>
       </c>
@@ -739,8 +754,11 @@
       <c r="H4" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>401701</v>
       </c>
@@ -765,8 +783,11 @@
       <c r="H5" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>390121</v>
       </c>
@@ -791,8 +812,11 @@
       <c r="H6" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>390111</v>
       </c>
@@ -817,8 +841,11 @@
       <c r="H7" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>531723</v>
       </c>
@@ -843,8 +870,11 @@
       <c r="H8" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>401712</v>
       </c>
@@ -869,8 +899,11 @@
       <c r="H9" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>440156</v>
       </c>
@@ -895,8 +928,11 @@
       <c r="H10" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>390141</v>
       </c>
@@ -921,8 +957,11 @@
       <c r="H11" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>250101</v>
       </c>
@@ -947,8 +986,11 @@
       <c r="H12" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>401703</v>
       </c>
@@ -973,8 +1015,11 @@
       <c r="H13" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>420101</v>
       </c>
@@ -999,8 +1044,11 @@
       <c r="H14" s="8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>420102</v>
       </c>
@@ -1025,8 +1073,11 @@
       <c r="H15" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>401808</v>
       </c>
@@ -1051,8 +1102,11 @@
       <c r="H16" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>250103</v>
       </c>
@@ -1077,8 +1131,11 @@
       <c r="H17" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>250102</v>
       </c>
@@ -1103,8 +1160,11 @@
       <c r="H18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>400101</v>
       </c>
@@ -1129,8 +1189,11 @@
       <c r="H19" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>270211</v>
       </c>
@@ -1155,8 +1218,11 @@
       <c r="H20" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>401806</v>
       </c>
@@ -1181,8 +1247,11 @@
       <c r="H21" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>461727</v>
       </c>
@@ -1207,8 +1276,11 @@
       <c r="H22" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I22" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>471726</v>
       </c>
@@ -1233,8 +1305,11 @@
       <c r="H23" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>410112</v>
       </c>
@@ -1259,8 +1334,11 @@
       <c r="H24" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>401816</v>
       </c>
@@ -1285,8 +1363,11 @@
       <c r="H25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>461736</v>
       </c>
@@ -1311,8 +1392,11 @@
       <c r="H26" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>471737</v>
       </c>
@@ -1337,8 +1421,11 @@
       <c r="H27" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>471780</v>
       </c>
@@ -1363,8 +1450,11 @@
       <c r="H28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>531734</v>
       </c>
@@ -1389,8 +1479,11 @@
       <c r="H29" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>531733</v>
       </c>
@@ -1415,8 +1508,11 @@
       <c r="H30" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>270812</v>
       </c>
@@ -1441,8 +1537,11 @@
       <c r="H31" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>531713</v>
       </c>
@@ -1467,8 +1566,11 @@
       <c r="H32" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>461737</v>
       </c>
@@ -1493,8 +1595,11 @@
       <c r="H33" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>461725</v>
       </c>
@@ -1519,8 +1624,11 @@
       <c r="H34" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>471717</v>
       </c>
@@ -1545,8 +1653,11 @@
       <c r="H35" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>451762</v>
       </c>
@@ -1571,8 +1682,11 @@
       <c r="H36" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>461714</v>
       </c>
@@ -1597,8 +1711,11 @@
       <c r="H37" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>410113</v>
       </c>
@@ -1623,8 +1740,11 @@
       <c r="H38" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>471728</v>
       </c>
@@ -1648,6 +1768,9 @@
       </c>
       <c r="H39" t="s">
         <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hoando/project/bru-server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C55D64-75F4-2F43-ACE6-0ECCA7A99ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D538DA-9EFB-B94C-B6D2-8A6CE9A5A058}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="27320" windowHeight="14900" xr2:uid="{916EC3F5-6A94-2D48-899F-35ABFB1D2707}"/>
   </bookViews>
@@ -206,7 +206,7 @@
     <t>score_of</t>
   </si>
   <si>
-    <t>student2</t>
+    <t>student8</t>
   </si>
 </sst>
 </file>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C679A9B-7F42-234D-BAF3-BF4E86F29D3F}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
